--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSIPLIT1297\training_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADC913C-0830-4225-BD6E-43DF0A1C2F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F41EB82-AC5B-4E0F-8361-65E84CC55D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C02680A8-B207-4028-9511-64AFFF39DC02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="262">
   <si>
     <t>email</t>
   </si>
@@ -806,9 +806,6 @@
     <t>Sourabh@321</t>
   </si>
   <si>
-    <t>Dheerendra @SSi</t>
-  </si>
-  <si>
     <t>Avinash@SSi</t>
   </si>
   <si>
@@ -819,6 +816,12 @@
   </si>
   <si>
     <t>Abhijeet@386</t>
+  </si>
+  <si>
+    <t>Dheerendra@SSi</t>
+  </si>
+  <si>
+    <t>L&amp;D@Ssiadmin</t>
   </si>
 </sst>
 </file>
@@ -848,9 +851,12 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -885,10 +891,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -912,14 +919,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1252,10 +1261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D9CBA7-4692-4D9F-9D67-D02B5BE8CA8F}">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1282,7 +1291,7 @@
       <c r="A2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>247</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1294,7 +1303,7 @@
         <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>3</v>
@@ -1304,11 +1313,11 @@
       <c r="A4" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>256</v>
+      <c r="B4" s="10" t="s">
+        <v>260</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1316,10 +1325,10 @@
         <v>130</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1327,10 +1336,10 @@
         <v>129</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1338,51 +1347,51 @@
         <v>128</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B11" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>4</v>
@@ -1390,21 +1399,21 @@
     </row>
     <row r="12" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>4</v>
@@ -1412,10 +1421,10 @@
     </row>
     <row r="14" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>4</v>
@@ -1423,43 +1432,43 @@
     </row>
     <row r="15" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="C16" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="C17" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>4</v>
@@ -1467,65 +1476,65 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="C21" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="C22" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="C23" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>4</v>
@@ -1533,10 +1542,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>4</v>
@@ -1544,10 +1553,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>4</v>
@@ -1555,10 +1564,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>4</v>
@@ -1566,32 +1575,32 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+      <c r="C29" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>4</v>
@@ -1599,10 +1608,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>4</v>
@@ -1610,10 +1619,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>4</v>
@@ -1621,10 +1630,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>4</v>
@@ -1632,32 +1641,32 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+      <c r="C35" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>4</v>
@@ -1665,43 +1674,43 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+      <c r="C38" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+      <c r="C39" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>4</v>
@@ -1709,32 +1718,32 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+      <c r="C42" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>4</v>
@@ -1742,87 +1751,87 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+      <c r="C45" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="7" t="s">
+      <c r="C46" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+      <c r="C47" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="7" t="s">
+      <c r="C48" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B49" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+      <c r="C49" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B50" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="7" t="s">
+      <c r="C50" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>4</v>
@@ -1830,54 +1839,54 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B53" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="7" t="s">
+      <c r="C53" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B54" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
+      <c r="C54" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B55" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="7" t="s">
+      <c r="C55" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>4</v>
@@ -1885,21 +1894,21 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>250</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>182</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>4</v>
@@ -1907,10 +1916,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>4</v>
@@ -1918,10 +1927,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>4</v>
@@ -1929,21 +1938,21 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>4</v>
@@ -1951,10 +1960,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>4</v>
@@ -1962,10 +1971,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>4</v>
@@ -1973,10 +1982,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" t="s">
-        <v>253</v>
+        <v>18</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>4</v>
@@ -1984,21 +1993,21 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B67" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>190</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>4</v>
@@ -2006,32 +2015,32 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B69" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
+      <c r="C69" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B70" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>193</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>4</v>
@@ -2039,21 +2048,21 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B72" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>195</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>4</v>
@@ -2061,10 +2070,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>4</v>
@@ -2072,10 +2081,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>4</v>
@@ -2083,10 +2092,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>4</v>
@@ -2094,32 +2103,32 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
+      <c r="C77" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>201</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>4</v>
@@ -2127,10 +2136,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>4</v>
@@ -2138,10 +2147,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" t="s">
-        <v>252</v>
+        <v>36</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>4</v>
@@ -2149,32 +2158,32 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B82" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="7" t="s">
+      <c r="C82" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>204</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B83" t="s">
-        <v>251</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>4</v>
@@ -2182,32 +2191,32 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C84" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="7" t="s">
+      <c r="C85" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B86" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>4</v>
@@ -2215,10 +2224,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>4</v>
@@ -2226,10 +2235,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B88" t="s">
-        <v>254</v>
+        <v>25</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>4</v>
@@ -2237,10 +2246,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>209</v>
+        <v>123</v>
+      </c>
+      <c r="B89" t="s">
+        <v>254</v>
       </c>
       <c r="C89" s="8" t="s">
         <v>4</v>
@@ -2248,10 +2257,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>4</v>
@@ -2259,10 +2268,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>4</v>
@@ -2270,21 +2279,21 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>213</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>4</v>
@@ -2292,43 +2301,43 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B95" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="6" t="s">
+      <c r="C95" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B96" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C95" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="7" t="s">
+      <c r="C96" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B97" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>4</v>
@@ -2336,54 +2345,54 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B99" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C98" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="7" t="s">
+      <c r="C99" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B100" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="6" t="s">
+      <c r="C100" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B101" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="7" t="s">
+      <c r="C101" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B102" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>221</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>4</v>
@@ -2391,10 +2400,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>4</v>
@@ -2402,10 +2411,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>4</v>
@@ -2413,10 +2422,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>4</v>
@@ -2424,32 +2433,32 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>255</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="7" t="s">
+      <c r="C107" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B108" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>4</v>
@@ -2457,65 +2466,65 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B110" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="7" t="s">
+      <c r="C110" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B111" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="C110" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="6" t="s">
+      <c r="C111" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B112" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="7" t="s">
+      <c r="C112" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B113" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C112" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="6" t="s">
+      <c r="C113" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B114" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="C114" s="8" t="s">
         <v>4</v>
@@ -2523,76 +2532,76 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B116" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="6" t="s">
+      <c r="C116" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B117" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="7" t="s">
+      <c r="C117" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B118" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="6" t="s">
+      <c r="C118" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B119" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="7" t="s">
+      <c r="C119" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B120" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="6" t="s">
+      <c r="C120" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B121" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>4</v>
@@ -2600,10 +2609,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C122" s="8" t="s">
         <v>4</v>
@@ -2611,10 +2620,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C123" s="8" t="s">
         <v>4</v>
@@ -2622,21 +2631,21 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B125" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>4</v>
@@ -2644,53 +2653,61 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B127" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C126" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="7" t="s">
+      <c r="C127" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A128" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B128" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C127" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="6" t="s">
+      <c r="C128" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A129" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B129" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="7" t="s">
+      <c r="C129" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A130" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B130" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C129" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B130"/>
-      <c r="C130" s="1"/>
+      <c r="C130" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B131"/>
       <c r="C131" s="1"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -2711,10 +2728,17 @@
     <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C137" s="1"/>
     </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C138" s="1"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:A137">
-    <sortCondition ref="A9:A137"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:A138">
+    <sortCondition ref="A10:A138"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{A71AE74C-F31A-4C69-A56E-684C088565D8}"/>
+    <hyperlink ref="B8" r:id="rId2" xr:uid="{44A792C4-87A8-4285-B65C-B190EDD5F0CF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSIPLIT1297\training_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F41EB82-AC5B-4E0F-8361-65E84CC55D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B110A6-86CE-4805-8E0F-148329F458D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C02680A8-B207-4028-9511-64AFFF39DC02}"/>
   </bookViews>
@@ -828,7 +828,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -849,14 +849,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -891,11 +883,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -922,13 +913,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1264,7 +1250,7 @@
   <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1302,7 +1288,7 @@
       <c r="A3" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>259</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1313,7 +1299,7 @@
       <c r="A4" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" t="s">
         <v>260</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -1357,7 +1343,7 @@
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" t="s">
         <v>261</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -2735,10 +2721,6 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:A138">
     <sortCondition ref="A10:A138"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{A71AE74C-F31A-4C69-A56E-684C088565D8}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{44A792C4-87A8-4285-B65C-B190EDD5F0CF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>